--- a/biology/Zoologie/Allobuthus_pescei/Allobuthus_pescei.xlsx
+++ b/biology/Zoologie/Allobuthus_pescei/Allobuthus_pescei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allobuthus pescei, unique représentant du genre Allobuthus, est une espèce fossile de scorpions de la famille des Anthracoscorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte à Montceau-les-Mines en France. Elle date du Carbonifère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte à Montceau-les-Mines en France. Elle date du Carbonifère.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthiscorpius pescei par Vachon et Heyler en 1985. Elle est placée dans le genre Allobuthus par Kjellesvig-Waering en 1986[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthiscorpius pescei par Vachon et Heyler en 1985. Elle est placée dans le genre Allobuthus par Kjellesvig-Waering en 1986.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean Sylvain Pesce[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean Sylvain Pesce.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vachon &amp; Heyler, 1985 : « Description d’une nouvelle espèce de Scorpion: Buthiscorpius pescei (Stéphanien de Montceau-les-Mines, France). Remarques sur la classification des Scorpions (Arachnida) du Carbonifère. » Bulletin de la Société d’Histoire Naturelle d’Autun, vol. 113, p. 29–47.
 Kjellesvig-Waering, 1986 : « A restudy of the fossil Scorpionida of the world. » Palaeontographica Americana, vol. 55, p. 5-287.</t>
